--- a/Paolo/Scripts/Bases/Informes_2daFase.xlsx
+++ b/Paolo/Scripts/Bases/Informes_2daFase.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2da_Fase'!$A$1:$A$194</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2da_Fase'!$A$1:$B$194</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="205">
   <si>
     <t>Informes</t>
   </si>
@@ -640,6 +640,9 @@
   </si>
   <si>
     <t>00898-2024-OEFA/DFAI-SSAG</t>
+  </si>
+  <si>
+    <t>Reconsideración</t>
   </si>
 </sst>
 </file>
@@ -710,7 +713,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -731,6 +734,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1015,7 +1021,7 @@
   <dimension ref="A1:B194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B179" sqref="B179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1036,8 +1042,8 @@
       <c r="A2" s="8">
         <v>2022</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
+      <c r="B2" s="9" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1069,7 +1075,7 @@
         <v>2022</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1085,7 +1091,7 @@
         <v>2022</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1093,7 +1099,7 @@
         <v>2022</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1101,7 +1107,7 @@
         <v>2022</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1109,7 +1115,7 @@
         <v>2022</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -1125,7 +1131,7 @@
         <v>2022</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1141,7 +1147,7 @@
         <v>2022</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -1149,15 +1155,15 @@
         <v>2022</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>2022</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>3</v>
+      <c r="B17" s="9" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -1165,7 +1171,7 @@
         <v>2022</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -1181,7 +1187,7 @@
         <v>2022</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -1196,8 +1202,8 @@
       <c r="A22" s="8">
         <v>2022</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>3</v>
+      <c r="B22" s="9" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -1213,7 +1219,7 @@
         <v>2022</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -1252,16 +1258,16 @@
       <c r="A29" s="8">
         <v>2022</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>3</v>
+      <c r="B29" s="9" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>2022</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>3</v>
+      <c r="B30" s="9" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -1285,7 +1291,7 @@
         <v>2022</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -1309,7 +1315,7 @@
         <v>2022</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -1324,8 +1330,8 @@
       <c r="A38" s="8">
         <v>2022</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>3</v>
+      <c r="B38" s="9" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -1341,7 +1347,7 @@
         <v>2022</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -1365,7 +1371,7 @@
         <v>2022</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -1373,7 +1379,7 @@
         <v>2022</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -1381,7 +1387,7 @@
         <v>2022</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -1389,7 +1395,7 @@
         <v>2022</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -1397,7 +1403,7 @@
         <v>2022</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -1405,7 +1411,7 @@
         <v>2022</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -1436,8 +1442,8 @@
       <c r="A52" s="8">
         <v>2023</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>56</v>
+      <c r="B52" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -1452,16 +1458,16 @@
       <c r="A54" s="8">
         <v>2023</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>56</v>
+      <c r="B54" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <v>2023</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>56</v>
+      <c r="B55" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -1476,15 +1482,15 @@
       <c r="A57" s="8">
         <v>2023</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>56</v>
+      <c r="B57" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
         <v>2023</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="9" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1492,8 +1498,8 @@
       <c r="A59" s="8">
         <v>2023</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>56</v>
+      <c r="B59" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -1516,32 +1522,32 @@
       <c r="A62" s="8">
         <v>2023</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>56</v>
+      <c r="B62" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
         <v>2023</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>56</v>
+      <c r="B63" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="8">
         <v>2023</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>56</v>
+      <c r="B64" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="8">
         <v>2023</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>56</v>
+      <c r="B65" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -1564,8 +1570,8 @@
       <c r="A68" s="8">
         <v>2023</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>56</v>
+      <c r="B68" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -1580,16 +1586,16 @@
       <c r="A70" s="8">
         <v>2023</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>56</v>
+      <c r="B70" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="8">
         <v>2023</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>56</v>
+      <c r="B71" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -1620,16 +1626,16 @@
       <c r="A75" s="8">
         <v>2023</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>56</v>
+      <c r="B75" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="8">
         <v>2023</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>56</v>
+      <c r="B76" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -1644,16 +1650,16 @@
       <c r="A78" s="8">
         <v>2023</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>56</v>
+      <c r="B78" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="8">
         <v>2023</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>56</v>
+      <c r="B79" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -1724,16 +1730,16 @@
       <c r="A88" s="8">
         <v>2023</v>
       </c>
-      <c r="B88" s="4" t="s">
-        <v>56</v>
+      <c r="B88" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="8">
         <v>2023</v>
       </c>
-      <c r="B89" s="4" t="s">
-        <v>56</v>
+      <c r="B89" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -1748,16 +1754,16 @@
       <c r="A91" s="8">
         <v>2023</v>
       </c>
-      <c r="B91" s="4" t="s">
-        <v>56</v>
+      <c r="B91" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="8">
         <v>2023</v>
       </c>
-      <c r="B92" s="4" t="s">
-        <v>3</v>
+      <c r="B92" s="9" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -1772,8 +1778,8 @@
       <c r="A94" s="8">
         <v>2023</v>
       </c>
-      <c r="B94" s="4" t="s">
-        <v>56</v>
+      <c r="B94" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -1893,7 +1899,7 @@
         <v>2024</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>116</v>
+        <v>204</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -1965,7 +1971,7 @@
         <v>2024</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>116</v>
+        <v>204</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -1981,7 +1987,7 @@
         <v>2024</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>116</v>
+        <v>204</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -2189,7 +2195,7 @@
         <v>2024</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>116</v>
+        <v>204</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
@@ -2277,7 +2283,7 @@
         <v>2024</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>116</v>
+        <v>204</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
@@ -2341,7 +2347,7 @@
         <v>2024</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>116</v>
+        <v>204</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
@@ -2380,8 +2386,8 @@
       <c r="A170" s="8">
         <v>2024</v>
       </c>
-      <c r="B170" s="3" t="s">
-        <v>176</v>
+      <c r="B170" s="9" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
@@ -2453,7 +2459,7 @@
         <v>2024</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>116</v>
+        <v>204</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
@@ -2468,8 +2474,8 @@
       <c r="A181" s="8">
         <v>2024</v>
       </c>
-      <c r="B181" s="3" t="s">
-        <v>176</v>
+      <c r="B181" s="9" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
@@ -2500,8 +2506,8 @@
       <c r="A185" s="8">
         <v>2024</v>
       </c>
-      <c r="B185" s="3" t="s">
-        <v>176</v>
+      <c r="B185" s="9" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
@@ -2532,8 +2538,8 @@
       <c r="A189" s="8">
         <v>2024</v>
       </c>
-      <c r="B189" s="3" t="s">
-        <v>176</v>
+      <c r="B189" s="9" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
@@ -2577,7 +2583,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A194"/>
+  <autoFilter ref="A1:B194"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
